--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1866602E-4253-476F-8447-0A854B9BDCD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE26B74-492B-4EE0-8FB7-0448922A6D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,7 @@
       <c r="E2" s="2">
         <v>44095</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>44102</v>
       </c>
       <c r="G2" s="8">
@@ -1757,6 +1757,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1979,22 +1994,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2011,21 +2028,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE26B74-492B-4EE0-8FB7-0448922A6D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9C845-7849-400E-BCFD-604301AF4B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="5250" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,17 +1029,18 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
@@ -1138,7 +1139,7 @@
       <c r="F2" s="2">
         <v>44102</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="2">
         <v>44109</v>
       </c>
       <c r="H2" s="8">
@@ -1211,7 +1212,7 @@
       <c r="E3" s="3">
         <v>44096</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>44103</v>
       </c>
       <c r="G3" s="6">
@@ -1287,7 +1288,7 @@
       <c r="E4" s="3">
         <v>44097</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>44104</v>
       </c>
       <c r="G4" s="6">
@@ -1363,7 +1364,7 @@
       <c r="E5" s="3">
         <v>44098</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>44105</v>
       </c>
       <c r="G5" s="6">
@@ -1439,7 +1440,7 @@
       <c r="E6" s="5">
         <v>44099</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>44106</v>
       </c>
       <c r="G6" s="7">
@@ -1547,17 +1548,17 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="23"/>
+      <c r="L8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -1596,14 +1597,14 @@
       <c r="D9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>42</v>
@@ -1757,21 +1758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1994,24 +1980,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2028,4 +2012,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9C845-7849-400E-BCFD-604301AF4B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E475BF-6F1E-4F54-9163-60680652D1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,9 +1038,9 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
@@ -1215,7 +1215,7 @@
       <c r="F3" s="3">
         <v>44103</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>44110</v>
       </c>
       <c r="H3" s="6">
@@ -1758,6 +1758,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1980,22 +1995,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2012,21 +2029,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E475BF-6F1E-4F54-9163-60680652D1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D34C4BD-AC92-47E5-9B2C-0F0A909AA844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1291,7 +1291,7 @@
       <c r="F4" s="3">
         <v>44104</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>44111</v>
       </c>
       <c r="H4" s="6">
@@ -1758,21 +1758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1995,24 +1980,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2029,4 +2012,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D34C4BD-AC92-47E5-9B2C-0F0A909AA844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77C24E-B4A6-4D2C-8E96-7B7B201FEA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -259,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,12 +356,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -577,8 +571,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1029,7 +1023,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1361,7 @@
       <c r="F5" s="3">
         <v>44105</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>44112</v>
       </c>
       <c r="H5" s="6">
@@ -1659,7 +1653,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1743,7 +1737,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1758,6 +1752,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1980,22 +1989,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2012,21 +2023,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77C24E-B4A6-4D2C-8E96-7B7B201FEA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443BC92-2CEE-4730-8818-2943108F2E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Gesprek docent</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>No workday</t>
+  </si>
+  <si>
+    <t>Vacationday</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -573,6 +576,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1020,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,8 +1038,9 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
@@ -1136,7 +1142,7 @@
       <c r="G2" s="2">
         <v>44109</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="2">
         <v>44116</v>
       </c>
       <c r="I2" s="8">
@@ -1291,7 +1297,7 @@
       <c r="H4" s="6">
         <v>44118</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="43">
         <v>44125</v>
       </c>
       <c r="J4" s="6">
@@ -1367,7 +1373,7 @@
       <c r="H5" s="6">
         <v>44119</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="43">
         <v>44126</v>
       </c>
       <c r="J5" s="6">
@@ -1437,7 +1443,7 @@
       <c r="F6" s="5">
         <v>44106</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>44113</v>
       </c>
       <c r="H6" s="7">
@@ -1597,11 +1603,11 @@
       <c r="F9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>42</v>
@@ -1739,6 +1745,11 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1752,21 +1763,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1989,24 +1985,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2023,4 +2017,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443BC92-2CEE-4730-8818-2943108F2E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA14527-FA73-4DF1-9BC8-A4D097B5776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,7 @@
       <c r="G3" s="3">
         <v>44110</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>44117</v>
       </c>
       <c r="I3" s="6">
@@ -1763,6 +1763,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1985,22 +2000,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2017,21 +2034,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA14527-FA73-4DF1-9BC8-A4D097B5776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE7B3D-F0F8-4F2F-BC5F-3A4E9CE4DF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
       <c r="G4" s="3">
         <v>44111</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>44118</v>
       </c>
       <c r="I4" s="43">
@@ -1763,21 +1763,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2000,24 +1985,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2034,4 +2017,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE7B3D-F0F8-4F2F-BC5F-3A4E9CE4DF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC1C00-503A-45A9-AC49-A62636522849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Gesprek docent</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Vacationday</t>
+  </si>
+  <si>
+    <t>50% presentation</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1031,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1043,9 @@
     <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
@@ -1370,7 +1375,7 @@
       <c r="G5" s="3">
         <v>44112</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>44119</v>
       </c>
       <c r="I5" s="43">
@@ -1446,7 +1451,7 @@
       <c r="G6" s="5">
         <v>44113</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>44120</v>
       </c>
       <c r="I6" s="7">
@@ -1518,7 +1523,9 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="J7" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
@@ -1763,6 +1770,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1985,22 +2007,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2017,21 +2041,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC1C00-503A-45A9-AC49-A62636522849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C41FC-484E-4AC6-BAFB-97E7EC78C7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
-  <si>
-    <t>Gesprek docent</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>1</t>
   </si>
@@ -1031,7 +1028,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,11 +1036,10 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1053,81 +1049,81 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="26" t="s">
-        <v>22</v>
-      </c>
       <c r="X1" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>44074</v>
@@ -1203,7 +1199,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>44075</v>
@@ -1279,7 +1275,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>44076</v>
@@ -1355,7 +1351,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>44077</v>
@@ -1431,7 +1427,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>44078</v>
@@ -1507,24 +1503,22 @@
     </row>
     <row r="7" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>0</v>
-      </c>
+      <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -1538,225 +1532,225 @@
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="37" t="s">
         <v>55</v>
-      </c>
-      <c r="W7" s="37" t="s">
-        <v>56</v>
       </c>
       <c r="X7" s="35"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="S8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="K9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="L9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="M9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="N9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="O9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="P9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X9" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="D10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="L10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="M10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="N10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="O10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="29" t="s">
+      <c r="P10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="Q10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="29" t="s">
+      <c r="T10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="29" t="s">
-        <v>38</v>
-      </c>
       <c r="U10" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V10" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W10" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X10" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1770,21 +1764,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2007,24 +1986,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2041,4 +2018,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C41FC-484E-4AC6-BAFB-97E7EC78C7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39255D5-5C62-4FBF-83D2-53ED47A651D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
       <c r="H2" s="2">
         <v>44116</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="2">
         <v>44123</v>
       </c>
       <c r="J2" s="8">
@@ -1222,7 +1222,7 @@
       <c r="H3" s="3">
         <v>44117</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>44124</v>
       </c>
       <c r="J3" s="6">
@@ -1764,6 +1764,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1986,22 +2001,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2018,21 +2035,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39255D5-5C62-4FBF-83D2-53ED47A651D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4356227-8CF4-4A1F-9321-9A5B3FEB35A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -262,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -521,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -578,6 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1028,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1156,7 @@
       <c r="I2" s="2">
         <v>44123</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="2">
         <v>44130</v>
       </c>
       <c r="K2" s="8">
@@ -1450,7 +1457,7 @@
       <c r="H6" s="5">
         <v>44120</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="44">
         <v>44127</v>
       </c>
       <c r="J6" s="7">
@@ -1610,11 +1617,11 @@
       <c r="H9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>41</v>
@@ -1764,21 +1771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2001,24 +1993,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2035,4 +2025,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4356227-8CF4-4A1F-9321-9A5B3FEB35A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7FF031-DB9B-451D-9E27-E3A06C45BD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       <c r="I3" s="3">
         <v>44124</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>44131</v>
       </c>
       <c r="K3" s="6">
@@ -1771,6 +1771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1993,22 +2008,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2025,21 +2042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7FF031-DB9B-451D-9E27-E3A06C45BD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAF0AC-B1E4-4140-ADEE-7F23968595D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,7 @@
       <c r="I4" s="43">
         <v>44125</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>44132</v>
       </c>
       <c r="K4" s="6">
@@ -1771,21 +1771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2008,24 +1993,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2042,4 +2025,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAF0AC-B1E4-4140-ADEE-7F23968595D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1B9DC-B90D-4FE1-BCC2-B357CB6D20C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,9 +1046,9 @@
     <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
@@ -1384,7 +1384,7 @@
       <c r="I5" s="43">
         <v>44126</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>44133</v>
       </c>
       <c r="K5" s="6">
@@ -1524,10 +1524,10 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
@@ -1771,6 +1771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1993,22 +2008,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2025,21 +2042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1B9DC-B90D-4FE1-BCC2-B357CB6D20C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE241FA8-1AAA-4087-B5B0-F7AD30C8DE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,11 +1045,9 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
@@ -1159,7 +1157,7 @@
       <c r="J2" s="2">
         <v>44130</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="2">
         <v>44137</v>
       </c>
       <c r="L2" s="8">
@@ -1460,7 +1458,7 @@
       <c r="I6" s="44">
         <v>44127</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="44">
         <v>44134</v>
       </c>
       <c r="K6" s="7">
@@ -1620,11 +1618,11 @@
       <c r="I9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>41</v>
@@ -1771,21 +1769,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2008,24 +1991,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2042,4 +2023,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE241FA8-1AAA-4087-B5B0-F7AD30C8DE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A356A-43FA-4E76-BA81-5CD9647F1CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1233,7 @@
       <c r="J3" s="3">
         <v>44131</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>44138</v>
       </c>
       <c r="L3" s="6">
@@ -1769,6 +1769,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1991,22 +2006,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2023,21 +2040,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A356A-43FA-4E76-BA81-5CD9647F1CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B100F3-7AAA-404A-9C19-A784B1FD537F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1309,7 @@
       <c r="J4" s="3">
         <v>44132</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>44139</v>
       </c>
       <c r="L4" s="6">
@@ -1769,21 +1769,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2006,24 +1991,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2040,4 +2023,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B100F3-7AAA-404A-9C19-A784B1FD537F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E72B48-85BC-42A4-BAC1-7306295461F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
       <c r="J5" s="3">
         <v>44133</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>44140</v>
       </c>
       <c r="L5" s="6">
@@ -1769,6 +1769,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1991,22 +2006,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2023,21 +2040,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E72B48-85BC-42A4-BAC1-7306295461F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3955247C-3F6C-4B73-977C-4D1EDA9F807A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,8 @@
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
@@ -1160,7 +1161,7 @@
       <c r="K2" s="2">
         <v>44137</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="2">
         <v>44144</v>
       </c>
       <c r="M2" s="8">
@@ -1461,7 +1462,7 @@
       <c r="J6" s="44">
         <v>44134</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>44141</v>
       </c>
       <c r="L6" s="7">
@@ -1621,11 +1622,11 @@
       <c r="J9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>41</v>
@@ -1769,21 +1770,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2006,24 +1992,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2040,4 +2024,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3955247C-3F6C-4B73-977C-4D1EDA9F807A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A050B2F-8C1C-48D8-8387-AA1DABE86A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1237,7 @@
       <c r="K3" s="3">
         <v>44138</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>44145</v>
       </c>
       <c r="M3" s="6">
@@ -1770,6 +1770,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1992,22 +2007,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2024,21 +2041,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A050B2F-8C1C-48D8-8387-AA1DABE86A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF659BF-963B-4EF3-B6A5-7FF75C65E9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1313,7 @@
       <c r="K4" s="3">
         <v>44139</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>44146</v>
       </c>
       <c r="M4" s="6">
@@ -1770,21 +1770,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2007,24 +1992,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2041,4 +2024,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF659BF-963B-4EF3-B6A5-7FF75C65E9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31591656-A804-487F-882D-F8BAE8C959C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1389,7 @@
       <c r="K5" s="3">
         <v>44140</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>44147</v>
       </c>
       <c r="M5" s="6">
@@ -1770,6 +1770,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1992,22 +2007,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2024,21 +2041,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31591656-A804-487F-882D-F8BAE8C959C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF03AAA-19F5-44FB-B2E8-18714ADC3E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,8 +1047,9 @@
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
@@ -1164,7 +1165,7 @@
       <c r="L2" s="2">
         <v>44144</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="2">
         <v>44151</v>
       </c>
       <c r="N2" s="8">
@@ -1465,7 +1466,7 @@
       <c r="K6" s="5">
         <v>44141</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="44">
         <v>44148</v>
       </c>
       <c r="M6" s="7">
@@ -1563,10 +1564,10 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
@@ -1625,11 +1626,11 @@
       <c r="K9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>41</v>
@@ -1770,21 +1771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2007,24 +1993,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2041,4 +2025,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF03AAA-19F5-44FB-B2E8-18714ADC3E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B4ED4-5F7F-4186-AC56-41ECA4E0B3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,7 @@
       <c r="L3" s="3">
         <v>44145</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>44152</v>
       </c>
       <c r="N3" s="6">
@@ -1771,6 +1771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1993,22 +2008,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2025,21 +2042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B4ED4-5F7F-4186-AC56-41ECA4E0B3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E66E8-03D3-4A4C-90B5-C6A36DFDBBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
       <c r="L4" s="3">
         <v>44146</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>44153</v>
       </c>
       <c r="N4" s="6">
@@ -1771,21 +1771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2008,24 +1993,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2042,4 +2025,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E66E8-03D3-4A4C-90B5-C6A36DFDBBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1125DEF-3FF8-435E-92FD-1682E71D2330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1393,7 @@
       <c r="L5" s="3">
         <v>44147</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>44154</v>
       </c>
       <c r="N5" s="6">
@@ -1771,6 +1771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1993,22 +2008,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2025,21 +2042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1125DEF-3FF8-435E-92FD-1682E71D2330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BC6EE-FD17-4C87-861C-FB08E1C6AB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="2325" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,9 +1047,9 @@
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
@@ -1168,7 +1168,7 @@
       <c r="M2" s="2">
         <v>44151</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="2">
         <v>44158</v>
       </c>
       <c r="O2" s="8">
@@ -1244,7 +1244,7 @@
       <c r="M3" s="3">
         <v>44152</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>44159</v>
       </c>
       <c r="O3" s="6">
@@ -1469,7 +1469,7 @@
       <c r="L6" s="44">
         <v>44148</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="44">
         <v>44155</v>
       </c>
       <c r="N6" s="7">
@@ -1629,11 +1629,11 @@
       <c r="L9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>41</v>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BC6EE-FD17-4C87-861C-FB08E1C6AB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC980CE-7F4D-4B91-B50B-16E4696534C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,9 +1047,9 @@
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
@@ -1171,7 +1171,7 @@
       <c r="N2" s="2">
         <v>44158</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="2">
         <v>44165</v>
       </c>
       <c r="P2" s="8">
@@ -1320,7 +1320,7 @@
       <c r="M4" s="3">
         <v>44153</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>44160</v>
       </c>
       <c r="O4" s="6">
@@ -1396,7 +1396,7 @@
       <c r="M5" s="3">
         <v>44154</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>44161</v>
       </c>
       <c r="O5" s="6">
@@ -1472,7 +1472,7 @@
       <c r="M6" s="44">
         <v>44155</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="44">
         <v>44162</v>
       </c>
       <c r="O6" s="7">
@@ -1632,11 +1632,11 @@
       <c r="M9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>41</v>
@@ -1771,21 +1771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2008,24 +1993,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2042,4 +2025,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC980CE-7F4D-4B91-B50B-16E4696534C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C2DF2-10D5-41F7-842F-5A982928D735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="0" yWindow="2685" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -585,6 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1034,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,10 +1047,11 @@
     <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
@@ -1174,16 +1176,16 @@
       <c r="O2" s="2">
         <v>44165</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="2">
         <v>44172</v>
       </c>
       <c r="Q2" s="8">
         <v>44179</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="45">
         <v>44186</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="45">
         <v>44193</v>
       </c>
       <c r="T2" s="8">
@@ -1247,7 +1249,7 @@
       <c r="N3" s="3">
         <v>44159</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="3">
         <v>44166</v>
       </c>
       <c r="P3" s="6">
@@ -1256,10 +1258,10 @@
       <c r="Q3" s="6">
         <v>44180</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="43">
         <v>44187</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="43">
         <v>44194</v>
       </c>
       <c r="T3" s="6">
@@ -1323,7 +1325,7 @@
       <c r="N4" s="3">
         <v>44160</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="3">
         <v>44167</v>
       </c>
       <c r="P4" s="6">
@@ -1332,10 +1334,10 @@
       <c r="Q4" s="6">
         <v>44181</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="43">
         <v>44188</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="43">
         <v>44195</v>
       </c>
       <c r="T4" s="6">
@@ -1399,7 +1401,7 @@
       <c r="N5" s="3">
         <v>44161</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="3">
         <v>44168</v>
       </c>
       <c r="P5" s="6">
@@ -1408,10 +1410,10 @@
       <c r="Q5" s="6">
         <v>44182</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="43">
         <v>44189</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="43">
         <v>44196</v>
       </c>
       <c r="T5" s="6">
@@ -1475,7 +1477,7 @@
       <c r="N6" s="44">
         <v>44162</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="44">
         <v>44169</v>
       </c>
       <c r="P6" s="7">
@@ -1635,11 +1637,11 @@
       <c r="N9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>41</v>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C2DF2-10D5-41F7-842F-5A982928D735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178803E6-3068-431F-A5DD-ACEB32FD1AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2685" windowWidth="27855" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
       <c r="O3" s="3">
         <v>44166</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="3">
         <v>44173</v>
       </c>
       <c r="Q3" s="6">
@@ -1773,6 +1773,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1995,22 +2010,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2027,21 +2044,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178803E6-3068-431F-A5DD-ACEB32FD1AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC03FE0-CB57-4DEF-B1F0-BE7C5E94713B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
       <c r="O4" s="3">
         <v>44167</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="3">
         <v>44174</v>
       </c>
       <c r="Q4" s="6">
@@ -1773,21 +1773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2010,24 +1995,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2044,4 +2027,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC03FE0-CB57-4DEF-B1F0-BE7C5E94713B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1191E0-61F1-49EE-8683-96BE8574A6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="3945" yWindow="2205" windowWidth="19680" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>1</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Phase 0</t>
   </si>
   <si>
-    <t>Phase 3</t>
-  </si>
-  <si>
     <t>Extension week</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>50% presentation</t>
+  </si>
+  <si>
+    <t>Phase 3 - Extension week</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,9 +1050,11 @@
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1179,7 +1181,7 @@
       <c r="P2" s="2">
         <v>44172</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="2">
         <v>44179</v>
       </c>
       <c r="R2" s="45">
@@ -1404,7 +1406,7 @@
       <c r="O5" s="3">
         <v>44168</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>44175</v>
       </c>
       <c r="Q5" s="6">
@@ -1480,7 +1482,7 @@
       <c r="O6" s="44">
         <v>44169</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="44">
         <v>44176</v>
       </c>
       <c r="Q6" s="7">
@@ -1512,13 +1514,13 @@
     </row>
     <row r="7" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1528,7 +1530,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
@@ -1541,16 +1543,16 @@
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="W7" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="X7" s="35"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
@@ -1560,7 +1562,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -1568,25 +1570,23 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="23"/>
+      <c r="R8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="S8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>40</v>
@@ -1640,11 +1640,11 @@
       <c r="O9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="R9" s="13" t="s">
         <v>41</v>
@@ -1744,22 +1744,22 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1191E0-61F1-49EE-8683-96BE8574A6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEBF86D-2810-4E5E-8A79-5F43617C69A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="2205" windowWidth="19680" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1257,7 @@
       <c r="P3" s="3">
         <v>44173</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="3">
         <v>44180</v>
       </c>
       <c r="R3" s="43">
@@ -1773,6 +1773,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1995,22 +2010,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2027,21 +2044,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEBF86D-2810-4E5E-8A79-5F43617C69A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C47F2-1F34-43F7-9891-0BD77A60A178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="2205" windowWidth="19680" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,7 @@
       <c r="P4" s="3">
         <v>44174</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
         <v>44181</v>
       </c>
       <c r="R4" s="43">
@@ -1773,21 +1773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2010,24 +1995,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2044,4 +2027,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C47F2-1F34-43F7-9891-0BD77A60A178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B28AB8C-E145-4E9F-A1EA-4170266A7D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="2205" windowWidth="19680" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,8 +1050,7 @@
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1409,7 +1408,7 @@
       <c r="P5" s="3">
         <v>44175</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
         <v>44182</v>
       </c>
       <c r="R5" s="43">
@@ -1485,7 +1484,7 @@
       <c r="P6" s="44">
         <v>44176</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="44">
         <v>44183</v>
       </c>
       <c r="R6" s="7">
@@ -1643,11 +1642,11 @@
       <c r="P9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>41</v>
@@ -1773,6 +1772,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1995,22 +2009,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2027,21 +2043,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B28AB8C-E145-4E9F-A1EA-4170266A7D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B322C5-E1C6-4521-8CC9-51B88387DC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2205" windowWidth="19680" windowHeight="11385" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,9 +1051,8 @@
     <col min="12" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1189,10 +1188,10 @@
       <c r="S2" s="45">
         <v>44193</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="2">
         <v>44200</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="2">
         <v>44207</v>
       </c>
       <c r="V2" s="8">
@@ -1265,7 +1264,7 @@
       <c r="S3" s="43">
         <v>44194</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="3">
         <v>44201</v>
       </c>
       <c r="U3" s="6">
@@ -1341,7 +1340,7 @@
       <c r="S4" s="43">
         <v>44195</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="3">
         <v>44202</v>
       </c>
       <c r="U4" s="6">
@@ -1417,7 +1416,7 @@
       <c r="S5" s="43">
         <v>44196</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="3">
         <v>44203</v>
       </c>
       <c r="U5" s="6">
@@ -1487,13 +1486,13 @@
       <c r="Q6" s="44">
         <v>44183</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="44">
         <v>44190</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="44">
         <v>44197</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="44">
         <v>44204</v>
       </c>
       <c r="U6" s="7">
@@ -1581,11 +1580,11 @@
       <c r="S8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -1645,17 +1644,17 @@
       <c r="Q9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="V9" s="13" t="s">
         <v>41</v>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B322C5-E1C6-4521-8CC9-51B88387DC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56BD00C-7C82-4095-A694-2299FE989B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1267,7 @@
       <c r="T3" s="3">
         <v>44201</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="3">
         <v>44208</v>
       </c>
       <c r="V3" s="6">
@@ -1771,21 +1771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -2008,24 +1993,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2042,4 +2025,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56BD00C-7C82-4095-A694-2299FE989B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4D561-3BFB-4018-BCD6-96277D84CD0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1343,7 @@
       <c r="T4" s="3">
         <v>44202</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <v>44209</v>
       </c>
       <c r="V4" s="6">
@@ -1771,6 +1771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3B7FDB071B5114F9C1E9BE4F6100C6D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd5f6a8e33fa3fa4a319a3581ac19cf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c4e9300-2158-4f27-b7a4-0ea661d6437f" xmlns:ns4="72caab85-b177-4a5e-b33a-cb569996d4d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e863128cda4ce81bacfd61d68ec5d105" ns3:_="" ns4:_="">
     <xsd:import namespace="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
@@ -1993,22 +2008,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C14C440-8045-4B84-ADF1-362E77187BD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2025,21 +2042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4D561-3BFB-4018-BCD6-96277D84CD0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EFAD02-9295-4158-B65C-49C8C1F36AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,7 @@
       <c r="T5" s="3">
         <v>44203</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="3">
         <v>44210</v>
       </c>
       <c r="V5" s="6">
@@ -1495,7 +1495,7 @@
       <c r="T6" s="44">
         <v>44204</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="44">
         <v>44211</v>
       </c>
       <c r="V6" s="7">
@@ -1653,11 +1653,11 @@
       <c r="T9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="W9" s="13" t="s">
         <v>41</v>
@@ -1771,18 +1771,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2009,18 +2009,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EFAD02-9295-4158-B65C-49C8C1F36AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B95A03-0EDA-456D-9550-2FBE8A01FA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1194,7 @@
       <c r="U2" s="2">
         <v>44207</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="2">
         <v>44214</v>
       </c>
       <c r="W2" s="8">
@@ -1270,7 +1270,7 @@
       <c r="U3" s="3">
         <v>44208</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="3">
         <v>44215</v>
       </c>
       <c r="W3" s="6">
@@ -1346,7 +1346,7 @@
       <c r="U4" s="3">
         <v>44209</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="3">
         <v>44216</v>
       </c>
       <c r="W4" s="6">
@@ -1771,18 +1771,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2009,18 +2009,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B95A03-0EDA-456D-9550-2FBE8A01FA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC1EA89-07E0-4533-8533-4DC5E1FF78D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>1</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>Phase 3 - Extension week</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
 </sst>
 </file>
@@ -527,9 +536,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -541,7 +549,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -552,7 +559,6 @@
     <xf numFmtId="165" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -586,11 +592,28 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
@@ -704,33 +727,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3791D96-3CE9-4F8A-BC26-EFEC56076E33}" name="Table1" displayName="Table1" ref="A1:X10" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:X10" xr:uid="{110C82E6-A843-4040-A019-B1924DCB1DD2}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3791D96-3CE9-4F8A-BC26-EFEC56076E33}" name="Table1" displayName="Table1" ref="A1:AA10" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="A1:AA10" xr:uid="{110C82E6-A843-4040-A019-B1924DCB1DD2}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{D3A09CF0-3BAF-407A-B529-43EDDD215D27}" name="Weeks"/>
-    <tableColumn id="2" xr3:uid="{5490862F-B7D0-4928-BDBE-9E779B30CC2B}" name="1" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{48A2C1F8-24BF-4DCA-9316-7A0BE338A9B4}" name="2" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9D9879AC-15BD-4532-AE3C-35725E207578}" name="3" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{D2520B3A-7A26-4B15-A44B-34EBDA7C2E97}" name="4" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{25D25D94-43F5-4027-9FB9-EF79C35E4C45}" name="5" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{17F1938F-9D4F-4D45-AC6D-DB3323D37429}" name="6" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{352CC87D-E430-47D7-9139-737EDA50DAB6}" name="7" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{4EF48C1C-3837-4E5A-B970-06BE5F7A4591}" name="8" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{16A53116-19BF-47DA-B5DE-714631567A41}" name="9" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{5E66304B-73E5-44EF-AB13-0C7914CD01B5}" name="10" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{9FACBA77-1401-4C28-ABDF-ED79CCE609FA}" name="11" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{69904905-162B-4F6A-BD7D-D7B55DF37613}" name="12" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{142C7A06-3502-45E1-B592-6E803ACEC2A6}" name="13" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{F2D343CD-29AF-43E2-9B35-D5100ED3B155}" name="14" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{515FF106-3985-4596-BCC0-EE115C856B45}" name="15" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{9E462F55-7B19-46BD-93CA-7EA1205D1FCD}" name="16" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{8FA39420-6302-425E-8CF6-B7C723F93552}" name="17" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{1C2AB089-DF2C-4BDE-825D-F830FE44AF47}" name="18" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{CBA0B86D-EC89-4298-8DBE-4514C82188B4}" name="19" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{A7689F55-DC66-45E7-BD15-71CF51CBEA69}" name="20" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{0411F5E4-1D24-4658-8B38-3F9138BBE94F}" name="21" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{4E2082DC-6BE4-46E7-9818-1FE105940226}" name="22" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{2BF9B189-EE0F-4317-A3B6-0E349E929051}" name="23" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5490862F-B7D0-4928-BDBE-9E779B30CC2B}" name="1" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{48A2C1F8-24BF-4DCA-9316-7A0BE338A9B4}" name="2" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{9D9879AC-15BD-4532-AE3C-35725E207578}" name="3" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{D2520B3A-7A26-4B15-A44B-34EBDA7C2E97}" name="4" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{25D25D94-43F5-4027-9FB9-EF79C35E4C45}" name="5" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{17F1938F-9D4F-4D45-AC6D-DB3323D37429}" name="6" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{352CC87D-E430-47D7-9139-737EDA50DAB6}" name="7" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{4EF48C1C-3837-4E5A-B970-06BE5F7A4591}" name="8" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{16A53116-19BF-47DA-B5DE-714631567A41}" name="9" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{5E66304B-73E5-44EF-AB13-0C7914CD01B5}" name="10" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{9FACBA77-1401-4C28-ABDF-ED79CCE609FA}" name="11" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{69904905-162B-4F6A-BD7D-D7B55DF37613}" name="12" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{142C7A06-3502-45E1-B592-6E803ACEC2A6}" name="13" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{F2D343CD-29AF-43E2-9B35-D5100ED3B155}" name="14" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{515FF106-3985-4596-BCC0-EE115C856B45}" name="15" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{9E462F55-7B19-46BD-93CA-7EA1205D1FCD}" name="16" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{8FA39420-6302-425E-8CF6-B7C723F93552}" name="17" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{1C2AB089-DF2C-4BDE-825D-F830FE44AF47}" name="18" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{CBA0B86D-EC89-4298-8DBE-4514C82188B4}" name="19" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{A7689F55-DC66-45E7-BD15-71CF51CBEA69}" name="20" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{0411F5E4-1D24-4658-8B38-3F9138BBE94F}" name="21" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{4E2082DC-6BE4-46E7-9818-1FE105940226}" name="22" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{2BF9B189-EE0F-4317-A3B6-0E349E929051}" name="23" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{FC48ADA7-48D0-4A51-A79E-7947E44B3076}" name="24" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{FFD9A8AC-B0E5-4CF2-B9DC-7A69B51AC315}" name="25" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{01E7FD74-FF6E-4CBF-B2C5-30FA21420733}" name="26" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,709 +1080,778 @@
     <col min="18" max="20" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="Y1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>44074</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>44081</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>44088</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>44095</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>44102</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>44109</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>44116</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>44123</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>44130</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>44137</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>44144</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>44151</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>44158</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>44165</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>44172</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>44179</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="42">
         <v>44186</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="42">
         <v>44193</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>44200</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>44207</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>44214</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <v>44221</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="14">
         <v>44228</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="Y2" s="14">
+        <v>44235</v>
+      </c>
+      <c r="Z2" s="45">
+        <v>44242</v>
+      </c>
+      <c r="AA2" s="45">
+        <v>44249</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>44075</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>44082</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>44089</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>44096</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>44103</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>44110</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>44117</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>44124</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>44131</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>44138</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>44145</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>44152</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>44159</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>44166</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>44173</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>44180</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="40">
         <v>44187</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="40">
         <v>44194</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>44201</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>44208</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>44215</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>44222</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="16">
         <v>44229</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="Y3" s="16">
+        <v>44236</v>
+      </c>
+      <c r="Z3" s="46">
+        <v>44243</v>
+      </c>
+      <c r="AA3" s="46">
+        <v>44250</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44076</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>44083</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>44090</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>44097</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>44104</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>44111</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>44118</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="40">
         <v>44125</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>44132</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>44139</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>44146</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>44153</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>44160</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>44167</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>44174</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>44181</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="40">
         <v>44188</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="40">
         <v>44195</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>44202</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>44209</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>44216</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>44223</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="16">
         <v>44230</v>
       </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Y4" s="16">
+        <v>44237</v>
+      </c>
+      <c r="Z4" s="46">
+        <v>44244</v>
+      </c>
+      <c r="AA4" s="46">
+        <v>44251</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44077</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>44084</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>44091</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>44098</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>44105</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>44112</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>44119</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="40">
         <v>44126</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>44133</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>44140</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>44147</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>44154</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>44161</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>44168</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>44175</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>44182</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="40">
         <v>44189</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="40">
         <v>44196</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>44203</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>44210</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="2">
         <v>44217</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>44224</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="16">
         <v>44231</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="Y5" s="16">
+        <v>44238</v>
+      </c>
+      <c r="Z5" s="46">
+        <v>44245</v>
+      </c>
+      <c r="AA5" s="46">
+        <v>44252</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44078</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>44085</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>44092</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>44099</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>44106</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>44113</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>44120</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="41">
         <v>44127</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="41">
         <v>44134</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>44141</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="41">
         <v>44148</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="41">
         <v>44155</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="41">
         <v>44162</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="41">
         <v>44169</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="41">
         <v>44176</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="41">
         <v>44183</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="41">
         <v>44190</v>
       </c>
-      <c r="S6" s="44">
+      <c r="S6" s="41">
         <v>44197</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="41">
         <v>44204</v>
       </c>
-      <c r="U6" s="44">
+      <c r="U6" s="41">
         <v>44211</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="41">
         <v>44218</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>44225</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="19">
         <v>44232</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Y6" s="19">
+        <v>44239</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>44246</v>
+      </c>
+      <c r="AA6" s="47">
+        <v>44253</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="36" t="s">
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="35"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="9" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="11" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="24" t="s">
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="44" t="s">
         <v>43</v>
       </c>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="X9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="25" t="s">
+      <c r="Y9" s="22" t="s">
         <v>41</v>
       </c>
+      <c r="Z9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="29" t="s">
+      <c r="S10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="29" t="s">
+      <c r="U10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="29" t="s">
+      <c r="V10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="29" t="s">
+      <c r="W10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="29" t="s">
+      <c r="X10" s="26" t="s">
         <v>39</v>
       </c>
+      <c r="Y10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1771,18 +1866,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2009,18 +2104,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72caab85-b177-4a5e-b33a-cb569996d4d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC1EA89-07E0-4533-8533-4DC5E1FF78D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718446D-3F90-4305-8B60-810945716FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="18375" yWindow="0" windowWidth="21600" windowHeight="15435" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,22 +536,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -600,6 +596,9 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1061,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,93 +1080,95 @@
     <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1">
@@ -1218,10 +1219,10 @@
       <c r="Q2" s="1">
         <v>44179</v>
       </c>
-      <c r="R2" s="42">
+      <c r="R2" s="38">
         <v>44186</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="38">
         <v>44193</v>
       </c>
       <c r="T2" s="1">
@@ -1233,24 +1234,24 @@
       <c r="V2" s="1">
         <v>44214</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="1">
         <v>44221</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="45">
         <v>44228</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="45">
         <v>44235</v>
       </c>
-      <c r="Z2" s="45">
+      <c r="Z2" s="41">
         <v>44242</v>
       </c>
-      <c r="AA2" s="45">
+      <c r="AA2" s="41">
         <v>44249</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2">
@@ -1301,10 +1302,10 @@
       <c r="Q3" s="2">
         <v>44180</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="36">
         <v>44187</v>
       </c>
-      <c r="S3" s="40">
+      <c r="S3" s="36">
         <v>44194</v>
       </c>
       <c r="T3" s="2">
@@ -1316,24 +1317,24 @@
       <c r="V3" s="2">
         <v>44215</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="2">
         <v>44222</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="46">
         <v>44229</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="46">
         <v>44236</v>
       </c>
-      <c r="Z3" s="46">
+      <c r="Z3" s="42">
         <v>44243</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3" s="42">
         <v>44250</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2">
@@ -1357,7 +1358,7 @@
       <c r="H4" s="2">
         <v>44118</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="36">
         <v>44125</v>
       </c>
       <c r="J4" s="2">
@@ -1384,10 +1385,10 @@
       <c r="Q4" s="2">
         <v>44181</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="36">
         <v>44188</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="36">
         <v>44195</v>
       </c>
       <c r="T4" s="2">
@@ -1399,24 +1400,24 @@
       <c r="V4" s="2">
         <v>44216</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="2">
         <v>44223</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="46">
         <v>44230</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="46">
         <v>44237</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="42">
         <v>44244</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="42">
         <v>44251</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2">
@@ -1440,7 +1441,7 @@
       <c r="H5" s="2">
         <v>44119</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="36">
         <v>44126</v>
       </c>
       <c r="J5" s="2">
@@ -1467,10 +1468,10 @@
       <c r="Q5" s="2">
         <v>44182</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="36">
         <v>44189</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="36">
         <v>44196</v>
       </c>
       <c r="T5" s="2">
@@ -1482,24 +1483,24 @@
       <c r="V5" s="2">
         <v>44217</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="2">
         <v>44224</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="46">
         <v>44231</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="12">
         <v>44238</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5" s="42">
         <v>44245</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5" s="42">
         <v>44252</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
@@ -1523,335 +1524,335 @@
       <c r="H6" s="4">
         <v>44120</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="37">
         <v>44127</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="37">
         <v>44134</v>
       </c>
       <c r="K6" s="4">
         <v>44141</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="37">
         <v>44148</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="37">
         <v>44155</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="37">
         <v>44162</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="37">
         <v>44169</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="37">
         <v>44176</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="37">
         <v>44183</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="37">
         <v>44190</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="37">
         <v>44197</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="37">
         <v>44204</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="37">
         <v>44211</v>
       </c>
-      <c r="V6" s="41">
+      <c r="V6" s="37">
         <v>44218</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="37">
         <v>44225</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="47">
         <v>44232</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="15">
         <v>44239</v>
       </c>
-      <c r="Z6" s="47">
+      <c r="Z6" s="43">
         <v>44246</v>
       </c>
-      <c r="AA6" s="47">
+      <c r="AA6" s="43">
         <v>44253</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="33" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="8" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="8" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="10" t="s">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="44" t="s">
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="11" t="s">
+      <c r="B9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="X9" s="22" t="s">
+      <c r="Z9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="22" t="s">
+      <c r="AA9" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="26" t="s">
+      <c r="V10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="26" t="s">
+      <c r="W10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="26" t="s">
+      <c r="X10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718446D-3F90-4305-8B60-810945716FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE90696-F11B-4BF5-BB49-58DE1A83113C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18375" yWindow="0" windowWidth="21600" windowHeight="15435" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -549,10 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -599,6 +597,7 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1061,7 +1060,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,89 +1080,90 @@
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1219,10 +1219,10 @@
       <c r="Q2" s="1">
         <v>44179</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="36">
         <v>44186</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="36">
         <v>44193</v>
       </c>
       <c r="T2" s="1">
@@ -1237,16 +1237,16 @@
       <c r="W2" s="1">
         <v>44221</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="43">
         <v>44228</v>
       </c>
-      <c r="Y2" s="45">
+      <c r="Y2" s="43">
         <v>44235</v>
       </c>
-      <c r="Z2" s="41">
+      <c r="Z2" s="46">
         <v>44242</v>
       </c>
-      <c r="AA2" s="41">
+      <c r="AA2" s="39">
         <v>44249</v>
       </c>
     </row>
@@ -1302,10 +1302,10 @@
       <c r="Q3" s="2">
         <v>44180</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="34">
         <v>44187</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="34">
         <v>44194</v>
       </c>
       <c r="T3" s="2">
@@ -1320,21 +1320,21 @@
       <c r="W3" s="2">
         <v>44222</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3" s="44">
         <v>44229</v>
       </c>
-      <c r="Y3" s="46">
+      <c r="Y3" s="44">
         <v>44236</v>
       </c>
-      <c r="Z3" s="42">
+      <c r="Z3" s="40">
         <v>44243</v>
       </c>
-      <c r="AA3" s="42">
+      <c r="AA3" s="40">
         <v>44250</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2">
@@ -1358,7 +1358,7 @@
       <c r="H4" s="2">
         <v>44118</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="34">
         <v>44125</v>
       </c>
       <c r="J4" s="2">
@@ -1385,10 +1385,10 @@
       <c r="Q4" s="2">
         <v>44181</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="34">
         <v>44188</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="34">
         <v>44195</v>
       </c>
       <c r="T4" s="2">
@@ -1403,16 +1403,16 @@
       <c r="W4" s="2">
         <v>44223</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="44">
         <v>44230</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="44">
         <v>44237</v>
       </c>
-      <c r="Z4" s="42">
+      <c r="Z4" s="40">
         <v>44244</v>
       </c>
-      <c r="AA4" s="42">
+      <c r="AA4" s="40">
         <v>44251</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="H5" s="2">
         <v>44119</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="34">
         <v>44126</v>
       </c>
       <c r="J5" s="2">
@@ -1468,10 +1468,10 @@
       <c r="Q5" s="2">
         <v>44182</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="34">
         <v>44189</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="34">
         <v>44196</v>
       </c>
       <c r="T5" s="2">
@@ -1486,21 +1486,21 @@
       <c r="W5" s="2">
         <v>44224</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5" s="44">
         <v>44231</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="44">
         <v>44238</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Z5" s="40">
         <v>44245</v>
       </c>
-      <c r="AA5" s="42">
+      <c r="AA5" s="40">
         <v>44252</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
@@ -1524,131 +1524,131 @@
       <c r="H6" s="4">
         <v>44120</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="35">
         <v>44127</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="35">
         <v>44134</v>
       </c>
       <c r="K6" s="4">
         <v>44141</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="35">
         <v>44148</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="35">
         <v>44155</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>44162</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="35">
         <v>44169</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="35">
         <v>44176</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="35">
         <v>44183</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="35">
         <v>44190</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="35">
         <v>44197</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="35">
         <v>44204</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="35">
         <v>44211</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="35">
         <v>44218</v>
       </c>
-      <c r="W6" s="37">
+      <c r="W6" s="35">
         <v>44225</v>
       </c>
-      <c r="X6" s="47">
+      <c r="X6" s="45">
         <v>44232</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="45">
         <v>44239</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6" s="41">
         <v>44246</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6" s="41">
         <v>44253</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="29" t="s">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1663,196 +1663,196 @@
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-      <c r="X8" s="40" t="s">
+      <c r="X8" s="38" t="s">
         <v>43</v>
       </c>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="8" t="s">
+      <c r="B9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AA9" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="22" t="s">
+      <c r="U10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="22" t="s">
+      <c r="V10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="22" t="s">
+      <c r="W10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="22" t="s">
+      <c r="X10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="22" t="s">
+      <c r="Y10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="Z10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AA10" s="22" t="s">
+      <c r="AA10" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1867,18 +1867,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,14 +2105,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2125,6 +2117,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE90696-F11B-4BF5-BB49-58DE1A83113C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED62F2-A4F9-43EF-9C8C-3E1567506426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18375" yWindow="0" windowWidth="21600" windowHeight="15435" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -598,6 +598,7 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1060,7 +1061,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1327,7 @@
       <c r="Y3" s="44">
         <v>44236</v>
       </c>
-      <c r="Z3" s="40">
+      <c r="Z3" s="47">
         <v>44243</v>
       </c>
       <c r="AA3" s="40">
@@ -1867,18 +1868,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,6 +2106,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2117,14 +2126,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED62F2-A4F9-43EF-9C8C-3E1567506426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF7C0F-D01E-486B-B128-D01BC6AD0532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18375" yWindow="0" windowWidth="21600" windowHeight="15435" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
       <c r="Y4" s="44">
         <v>44237</v>
       </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="47">
         <v>44244</v>
       </c>
       <c r="AA4" s="40">
@@ -1493,7 +1493,7 @@
       <c r="Y5" s="44">
         <v>44238</v>
       </c>
-      <c r="Z5" s="40">
+      <c r="Z5" s="47">
         <v>44245</v>
       </c>
       <c r="AA5" s="40">
@@ -1868,18 +1868,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2106,14 +2106,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2126,6 +2118,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF7C0F-D01E-486B-B128-D01BC6AD0532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2F35E-88BE-49BD-AE35-A68D106C0DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18375" yWindow="0" windowWidth="21600" windowHeight="15435" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>1</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Not done</t>
   </si>
   <si>
     <t>In progress</t>
@@ -271,18 +268,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -536,69 +527,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1061,7 +1051,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,91 +1071,91 @@
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -1220,10 +1210,10 @@
       <c r="Q2" s="1">
         <v>44179</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="35">
         <v>44186</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="35">
         <v>44193</v>
       </c>
       <c r="T2" s="1">
@@ -1238,16 +1228,16 @@
       <c r="W2" s="1">
         <v>44221</v>
       </c>
-      <c r="X2" s="43">
+      <c r="X2" s="41">
         <v>44228</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="41">
         <v>44235</v>
       </c>
-      <c r="Z2" s="46">
+      <c r="Z2" s="44">
         <v>44242</v>
       </c>
-      <c r="AA2" s="39">
+      <c r="AA2" s="44">
         <v>44249</v>
       </c>
     </row>
@@ -1303,10 +1293,10 @@
       <c r="Q3" s="2">
         <v>44180</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="33">
         <v>44187</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="33">
         <v>44194</v>
       </c>
       <c r="T3" s="2">
@@ -1321,16 +1311,16 @@
       <c r="W3" s="2">
         <v>44222</v>
       </c>
-      <c r="X3" s="44">
+      <c r="X3" s="42">
         <v>44229</v>
       </c>
-      <c r="Y3" s="44">
+      <c r="Y3" s="42">
         <v>44236</v>
       </c>
-      <c r="Z3" s="47">
+      <c r="Z3" s="45">
         <v>44243</v>
       </c>
-      <c r="AA3" s="40">
+      <c r="AA3" s="45">
         <v>44250</v>
       </c>
     </row>
@@ -1359,7 +1349,7 @@
       <c r="H4" s="2">
         <v>44118</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>44125</v>
       </c>
       <c r="J4" s="2">
@@ -1386,10 +1376,10 @@
       <c r="Q4" s="2">
         <v>44181</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="33">
         <v>44188</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="33">
         <v>44195</v>
       </c>
       <c r="T4" s="2">
@@ -1404,16 +1394,16 @@
       <c r="W4" s="2">
         <v>44223</v>
       </c>
-      <c r="X4" s="44">
+      <c r="X4" s="42">
         <v>44230</v>
       </c>
-      <c r="Y4" s="44">
+      <c r="Y4" s="42">
         <v>44237</v>
       </c>
-      <c r="Z4" s="47">
+      <c r="Z4" s="45">
         <v>44244</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AA4" s="45">
         <v>44251</v>
       </c>
     </row>
@@ -1442,7 +1432,7 @@
       <c r="H5" s="2">
         <v>44119</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>44126</v>
       </c>
       <c r="J5" s="2">
@@ -1469,10 +1459,10 @@
       <c r="Q5" s="2">
         <v>44182</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="33">
         <v>44189</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="33">
         <v>44196</v>
       </c>
       <c r="T5" s="2">
@@ -1487,16 +1477,16 @@
       <c r="W5" s="2">
         <v>44224</v>
       </c>
-      <c r="X5" s="44">
+      <c r="X5" s="42">
         <v>44231</v>
       </c>
-      <c r="Y5" s="44">
+      <c r="Y5" s="42">
         <v>44238</v>
       </c>
-      <c r="Z5" s="47">
+      <c r="Z5" s="45">
         <v>44245</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AA5" s="38">
         <v>44252</v>
       </c>
     </row>
@@ -1525,118 +1515,118 @@
       <c r="H6" s="4">
         <v>44120</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="34">
         <v>44127</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>44134</v>
       </c>
       <c r="K6" s="4">
         <v>44141</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <v>44148</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="34">
         <v>44155</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="34">
         <v>44162</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="34">
         <v>44169</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="34">
         <v>44176</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <v>44183</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="34">
         <v>44190</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="34">
         <v>44197</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="34">
         <v>44204</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="34">
         <v>44211</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="34">
         <v>44218</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="34">
         <v>44225</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="43">
         <v>44232</v>
       </c>
-      <c r="Y6" s="45">
+      <c r="Y6" s="43">
         <v>44239</v>
       </c>
-      <c r="Z6" s="41">
+      <c r="Z6" s="46">
         <v>44246</v>
       </c>
-      <c r="AA6" s="41">
+      <c r="AA6" s="39">
         <v>44253</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="27" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -1644,217 +1634,217 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-      <c r="X8" s="38" t="s">
-        <v>43</v>
+      <c r="X8" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA9" s="16" t="s">
+      <c r="A9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="V10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="20" t="s">
+      <c r="X10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="Z10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="AA10" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>55</v>
+      <c r="A12" s="28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>56</v>
+      <c r="A13" s="29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>57</v>
+      <c r="A14" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>58</v>
+      <c r="A15" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1868,18 +1858,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2106,6 +2096,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2118,14 +2116,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planning/Planning Mart-Jan.xlsx
+++ b/Planning/Planning Mart-Jan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmeer\Crownstone\Crownstone-Intern-Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2F35E-88BE-49BD-AE35-A68D106C0DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36410F97-B33F-40AA-8819-67F2A7C1D0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18375" yWindow="0" windowWidth="21600" windowHeight="15435" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{435FE1F0-6994-48E1-B549-92D4C1B2F0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>1</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Deadline</t>
@@ -268,18 +265,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -527,68 +518,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1050,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB7574-35C6-452D-81F0-06F94FE9DD1B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,95 +1059,94 @@
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1">
@@ -1210,10 +1197,10 @@
       <c r="Q2" s="1">
         <v>44179</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="34">
         <v>44186</v>
       </c>
-      <c r="S2" s="35">
+      <c r="S2" s="34">
         <v>44193</v>
       </c>
       <c r="T2" s="1">
@@ -1228,21 +1215,21 @@
       <c r="W2" s="1">
         <v>44221</v>
       </c>
-      <c r="X2" s="41">
+      <c r="X2" s="38">
         <v>44228</v>
       </c>
-      <c r="Y2" s="41">
+      <c r="Y2" s="38">
         <v>44235</v>
       </c>
-      <c r="Z2" s="44">
+      <c r="Z2" s="41">
         <v>44242</v>
       </c>
-      <c r="AA2" s="44">
+      <c r="AA2" s="41">
         <v>44249</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2">
@@ -1293,10 +1280,10 @@
       <c r="Q3" s="2">
         <v>44180</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="32">
         <v>44187</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="32">
         <v>44194</v>
       </c>
       <c r="T3" s="2">
@@ -1311,21 +1298,21 @@
       <c r="W3" s="2">
         <v>44222</v>
       </c>
-      <c r="X3" s="42">
+      <c r="X3" s="39">
         <v>44229</v>
       </c>
-      <c r="Y3" s="42">
+      <c r="Y3" s="39">
         <v>44236</v>
       </c>
-      <c r="Z3" s="45">
+      <c r="Z3" s="42">
         <v>44243</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="AA3" s="42">
         <v>44250</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2">
@@ -1349,7 +1336,7 @@
       <c r="H4" s="2">
         <v>44118</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <v>44125</v>
       </c>
       <c r="J4" s="2">
@@ -1376,10 +1363,10 @@
       <c r="Q4" s="2">
         <v>44181</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="32">
         <v>44188</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="32">
         <v>44195</v>
       </c>
       <c r="T4" s="2">
@@ -1394,21 +1381,21 @@
       <c r="W4" s="2">
         <v>44223</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="39">
         <v>44230</v>
       </c>
-      <c r="Y4" s="42">
+      <c r="Y4" s="39">
         <v>44237</v>
       </c>
-      <c r="Z4" s="45">
+      <c r="Z4" s="42">
         <v>44244</v>
       </c>
-      <c r="AA4" s="45">
+      <c r="AA4" s="42">
         <v>44251</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2">
@@ -1432,7 +1419,7 @@
       <c r="H5" s="2">
         <v>44119</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <v>44126</v>
       </c>
       <c r="J5" s="2">
@@ -1459,10 +1446,10 @@
       <c r="Q5" s="2">
         <v>44182</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="32">
         <v>44189</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="32">
         <v>44196</v>
       </c>
       <c r="T5" s="2">
@@ -1477,21 +1464,21 @@
       <c r="W5" s="2">
         <v>44224</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="39">
         <v>44231</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="39">
         <v>44238</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="42">
         <v>44245</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="42">
         <v>44252</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
@@ -1515,336 +1502,336 @@
       <c r="H6" s="4">
         <v>44120</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>44127</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <v>44134</v>
       </c>
       <c r="K6" s="4">
         <v>44141</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <v>44148</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <v>44155</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="33">
         <v>44162</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="33">
         <v>44169</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="33">
         <v>44176</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <v>44183</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="33">
         <v>44190</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="33">
         <v>44197</v>
       </c>
-      <c r="T6" s="34">
+      <c r="T6" s="33">
         <v>44204</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="33">
         <v>44211</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="33">
         <v>44218</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="33">
         <v>44225</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="40">
         <v>44232</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="40">
         <v>44239</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="43">
         <v>44246</v>
       </c>
-      <c r="AA6" s="39">
+      <c r="AA6" s="43">
         <v>44253</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="26" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="15"/>
+      <c r="A8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="S8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>41</v>
+      <c r="A9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="Q10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="19" t="s">
+      <c r="W10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="19" t="s">
+      <c r="X10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="19" t="s">
+      <c r="Y10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="19" t="s">
+      <c r="Z10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AA10" s="19" t="s">
+      <c r="AA10" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>54</v>
+      <c r="A12" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>55</v>
+      <c r="A13" s="28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>56</v>
+      <c r="A14" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>57</v>
+      <c r="A15" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1858,18 +1845,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2096,14 +2083,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E1F462-3555-42C8-855E-56779F9BD1EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2116,6 +2095,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="3c4e9300-2158-4f27-b7a4-0ea661d6437f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C82C6B7-F5A9-4C61-A0FE-73C6A14DE687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
